--- a/data/reports/median_price_psf_test_results_with_rank.xlsx
+++ b/data/reports/median_price_psf_test_results_with_rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8646D768-0CFD-4B1E-9FD0-676346B6C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1CDE5-76CD-4905-83CC-00F859B89B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,12 +55,12 @@
     <t>rank_mse</t>
   </si>
   <si>
+    <t>rank_rmse</t>
+  </si>
+  <si>
     <t>rank_mae</t>
   </si>
   <si>
-    <t>rank_rmse</t>
-  </si>
-  <si>
     <t>rank_mape</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>MSE</t>
   </si>
   <si>
+    <t>RMSE</t>
+  </si>
+  <si>
     <t>MAE</t>
-  </si>
-  <si>
-    <t>RMSE</t>
   </si>
   <si>
     <t>MAPE</t>
@@ -159,7 +159,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,12 +218,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -245,54 +245,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -596,15 +554,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
@@ -612,10 +569,9 @@
     <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -801,12 +757,8 @@
       <c r="AC2" s="2">
         <v>9.9444444444444446</v>
       </c>
-      <c r="AD2">
-        <f>AVERAGE(K2:S2)</f>
-        <v>9.9444444444444446</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -903,12 +855,8 @@
       <c r="AC3" s="2">
         <v>6.166666666666667</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD16" si="10">AVERAGE(K3:S3)</f>
-        <v>6.166666666666667</v>
-      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1005,12 +953,8 @@
       <c r="AC4" s="2">
         <v>7.9444444444444446</v>
       </c>
-      <c r="AD4">
-        <f t="shared" si="10"/>
-        <v>7.9444444444444446</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1107,12 +1051,8 @@
       <c r="AC5" s="2">
         <v>1.5</v>
       </c>
-      <c r="AD5">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1209,12 +1149,8 @@
       <c r="AC6" s="2">
         <v>4.166666666666667</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="10"/>
-        <v>4.166666666666667</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1311,12 +1247,8 @@
       <c r="AC7" s="2">
         <v>9.9444444444444446</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="10"/>
-        <v>9.9444444444444446</v>
-      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1413,12 +1345,8 @@
       <c r="AC8" s="2">
         <v>6.166666666666667</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="10"/>
-        <v>6.166666666666667</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1515,12 +1443,8 @@
       <c r="AC9" s="2">
         <v>7.9444444444444446</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="10"/>
-        <v>7.9444444444444446</v>
-      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1617,12 +1541,8 @@
       <c r="AC10" s="2">
         <v>1.5</v>
       </c>
-      <c r="AD10">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1719,12 +1639,8 @@
       <c r="AC11" s="2">
         <v>4.166666666666667</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="10"/>
-        <v>4.166666666666667</v>
-      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1821,12 +1737,8 @@
       <c r="AC12" s="2">
         <v>14.888888888888889</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="10"/>
-        <v>14.888888888888889</v>
-      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1923,12 +1835,8 @@
       <c r="AC13" s="2">
         <v>14.111111111111111</v>
       </c>
-      <c r="AD13">
-        <f t="shared" si="10"/>
-        <v>14.111111111111111</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2025,12 +1933,8 @@
       <c r="AC14" s="2">
         <v>7</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2127,12 +2031,8 @@
       <c r="AC15" s="2">
         <v>12.444444444444439</v>
       </c>
-      <c r="AD15">
-        <f t="shared" si="10"/>
-        <v>12.444444444444445</v>
-      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2229,19 +2129,12 @@
       <c r="AC16" s="2">
         <v>12.111111111111111</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="10"/>
-        <v>12.111111111111111</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K16">
-    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="AC2:AC16">
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:S16">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC16">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/reports/median_price_psf_test_results_with_rank.xlsx
+++ b/data/reports/median_price_psf_test_results_with_rank.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\GitHub\time-series-house-price-forecasting\data\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1CDE5-76CD-4905-83CC-00F859B89B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t>model</t>
   </si>
@@ -139,29 +133,296 @@
     <t>SARIMAX (2, 1, 1)</t>
   </si>
   <si>
-    <t>Holt-Winters (p=6)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=11)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=10)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=2)</t>
-  </si>
-  <si>
-    <t>Holt-Winters (p=3)</t>
+    <t>Holt (p=6)</t>
+  </si>
+  <si>
+    <t>Holt (p=11)</t>
+  </si>
+  <si>
+    <t>Holt (p=10)</t>
+  </si>
+  <si>
+    <t>Holt (p=2)</t>
+  </si>
+  <si>
+    <t>Holt (p=3)</t>
+  </si>
+  <si>
+    <t>827.0059688094091 (10.5)</t>
+  </si>
+  <si>
+    <t>729.5076226676415 (5.5)</t>
+  </si>
+  <si>
+    <t>788.5418766508111 (8.5)</t>
+  </si>
+  <si>
+    <t>255.73458261932737 (1.5)</t>
+  </si>
+  <si>
+    <t>701.7438141468706 (3.5)</t>
+  </si>
+  <si>
+    <t>1071.7254527611315 (15.0)</t>
+  </si>
+  <si>
+    <t>911.5003103753668 (14.0)</t>
+  </si>
+  <si>
+    <t>754.7356888658259 (7.0)</t>
+  </si>
+  <si>
+    <t>899.9108262838421 (13.0)</t>
+  </si>
+  <si>
+    <t>856.2560417419502 (12.0)</t>
+  </si>
+  <si>
+    <t>28.757711466829363 (10.5)</t>
+  </si>
+  <si>
+    <t>27.0093987838982 (5.5)</t>
+  </si>
+  <si>
+    <t>28.080987814726374 (8.5)</t>
+  </si>
+  <si>
+    <t>15.991703555885701 (1.5)</t>
+  </si>
+  <si>
+    <t>26.49044760185963 (3.5)</t>
+  </si>
+  <si>
+    <t>32.737218158559706 (15.0)</t>
+  </si>
+  <si>
+    <t>30.191063419087556 (14.0)</t>
+  </si>
+  <si>
+    <t>27.472453273521566 (7.0)</t>
+  </si>
+  <si>
+    <t>29.998513734580953 (13.0)</t>
+  </si>
+  <si>
+    <t>29.261853012786975 (12.0)</t>
+  </si>
+  <si>
+    <t>23.627481501490344 (10.5)</t>
+  </si>
+  <si>
+    <t>22.377705354850892 (5.5)</t>
+  </si>
+  <si>
+    <t>22.943334431589204 (8.5)</t>
+  </si>
+  <si>
+    <t>12.83957813049552 (1.5)</t>
+  </si>
+  <si>
+    <t>21.879997830943577 (3.5)</t>
+  </si>
+  <si>
+    <t>27.882077568961613 (15.0)</t>
+  </si>
+  <si>
+    <t>25.249626838918093 (14.0)</t>
+  </si>
+  <si>
+    <t>22.439256958748288 (7.0)</t>
+  </si>
+  <si>
+    <t>24.88187767670744 (13.0)</t>
+  </si>
+  <si>
+    <t>24.751675548665137 (12.0)</t>
+  </si>
+  <si>
+    <t>0.05127121071448434 (10.5)</t>
+  </si>
+  <si>
+    <t>0.04860812764969254 (5.5)</t>
+  </si>
+  <si>
+    <t>0.04977107629228263 (8.5)</t>
+  </si>
+  <si>
+    <t>0.028500395659645482 (1.5)</t>
+  </si>
+  <si>
+    <t>0.04752758840004854 (3.5)</t>
+  </si>
+  <si>
+    <t>0.06066283021478002 (15.0)</t>
+  </si>
+  <si>
+    <t>0.05499109492158468 (14.0)</t>
+  </si>
+  <si>
+    <t>0.04872346276126664 (7.0)</t>
+  </si>
+  <si>
+    <t>0.054023612260152266 (13.0)</t>
+  </si>
+  <si>
+    <t>0.053833892384000444 (12.0)</t>
+  </si>
+  <si>
+    <t>-1.6788606985519503 (10.5)</t>
+  </si>
+  <si>
+    <t>-1.3630413483857033 (5.5)</t>
+  </si>
+  <si>
+    <t>-1.5542667431570591 (8.5)</t>
+  </si>
+  <si>
+    <t>0.17161743871598945 (1.5)</t>
+  </si>
+  <si>
+    <t>-1.2731080488770083 (3.5)</t>
+  </si>
+  <si>
+    <t>-2.4715628463634927 (15.0)</t>
+  </si>
+  <si>
+    <t>-1.952557115999734 (14.0)</t>
+  </si>
+  <si>
+    <t>-1.4447608009503292 (7.0)</t>
+  </si>
+  <si>
+    <t>-1.915016137312513 (13.0)</t>
+  </si>
+  <si>
+    <t>-1.7736083470139903 (12.0)</t>
+  </si>
+  <si>
+    <t>54.130237000471936 (5.5)</t>
+  </si>
+  <si>
+    <t>56.48207264833604 (11.5)</t>
+  </si>
+  <si>
+    <t>53.6530824329339 (3.5)</t>
+  </si>
+  <si>
+    <t>46.753303844217044 (1.5)</t>
+  </si>
+  <si>
+    <t>55.7948607796007 (9.5)</t>
+  </si>
+  <si>
+    <t>60.39081700060575 (14.0)</t>
+  </si>
+  <si>
+    <t>62.08842740769364 (15.0)</t>
+  </si>
+  <si>
+    <t>54.204249122050896 (7.0)</t>
+  </si>
+  <si>
+    <t>54.987238977824006 (8.0)</t>
+  </si>
+  <si>
+    <t>57.2607164115571 (13.0)</t>
+  </si>
+  <si>
+    <t>0.06435951394859019 (10.5)</t>
+  </si>
+  <si>
+    <t>0.06024218630843098 (5.5)</t>
+  </si>
+  <si>
+    <t>0.06276977232592815 (8.5)</t>
+  </si>
+  <si>
+    <t>0.03535641055443223 (1.5)</t>
+  </si>
+  <si>
+    <t>0.05903717393363367 (3.5)</t>
+  </si>
+  <si>
+    <t>0.07380180784220523 (15.0)</t>
+  </si>
+  <si>
+    <t>0.06773912163967576 (14.0)</t>
+  </si>
+  <si>
+    <t>0.06139652144240016 (7.0)</t>
+  </si>
+  <si>
+    <t>0.06726857838229787 (13.0)</t>
+  </si>
+  <si>
+    <t>0.06552137782339977 (12.0)</t>
+  </si>
+  <si>
+    <t>1.8820330924638446 (10.5)</t>
+  </si>
+  <si>
+    <t>1.652508669441833 (5.5)</t>
+  </si>
+  <si>
+    <t>1.7917505247854857 (8.5)</t>
+  </si>
+  <si>
+    <t>0.5682382667966901 (1.5)</t>
+  </si>
+  <si>
+    <t>1.587921163709052 (3.5)</t>
+  </si>
+  <si>
+    <t>2.461028455815369 (15.0)</t>
+  </si>
+  <si>
+    <t>2.0791688873159084 (14.0)</t>
+  </si>
+  <si>
+    <t>1.714242461694759 (7.0)</t>
+  </si>
+  <si>
+    <t>2.0527640016875806 (13.0)</t>
+  </si>
+  <si>
+    <t>1.948780338483516 (12.0)</t>
+  </si>
+  <si>
+    <t>0.0042855338934469685 (10.5)</t>
+  </si>
+  <si>
+    <t>0.0037452194370662865 (5.5)</t>
+  </si>
+  <si>
+    <t>0.004073611133644913 (8.5)</t>
+  </si>
+  <si>
+    <t>0.0012635367539716835 (1.5)</t>
+  </si>
+  <si>
+    <t>0.003594968192074477 (3.5)</t>
+  </si>
+  <si>
+    <t>0.005655563932343618 (15.0)</t>
+  </si>
+  <si>
+    <t>0.004745512737618318 (14.0)</t>
+  </si>
+  <si>
+    <t>0.0038959455090551653 (7.0)</t>
+  </si>
+  <si>
+    <t>0.004685387767679483 (13.0)</t>
+  </si>
+  <si>
+    <t>0.0044377530472979355 (12.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,64 +474,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +529,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -342,7 +563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -377,10 +597,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,25 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,42 +838,42 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
-        <v>827.00596880940907</v>
+        <v>827.0059688094091</v>
       </c>
       <c r="C2">
         <v>28.75771146682936</v>
@@ -674,22 +882,22 @@
         <v>23.62748150149034</v>
       </c>
       <c r="E2">
-        <v>5.1271210714484337E-2</v>
+        <v>0.05127121071448434</v>
       </c>
       <c r="F2">
-        <v>-1.6788606985519501</v>
+        <v>-1.67886069855195</v>
       </c>
       <c r="G2">
-        <v>54.130237000471944</v>
+        <v>54.13023700047194</v>
       </c>
       <c r="H2">
-        <v>6.4359513948590186E-2</v>
+        <v>0.06435951394859019</v>
       </c>
       <c r="I2">
-        <v>1.8820330924638451</v>
+        <v>1.882033092463845</v>
       </c>
       <c r="J2">
-        <v>4.2855338934469694E-3</v>
+        <v>0.004285533893446969</v>
       </c>
       <c r="K2">
         <v>10.5</v>
@@ -718,47 +926,38 @@
       <c r="S2">
         <v>10.5</v>
       </c>
-      <c r="T2" t="str">
-        <f>_xlfn.CONCAT(ROUND(B2,6)," (",K2,")")</f>
-        <v>827.005969 (10.5)</v>
-      </c>
-      <c r="U2" t="str">
-        <f t="shared" ref="U2:AB2" si="0">_xlfn.CONCAT(ROUND(C2,6)," (",L2,")")</f>
-        <v>28.757711 (10.5)</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" si="0"/>
-        <v>23.627482 (10.5)</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.051271 (10.5)</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
-        <v>-1.678861 (10.5)</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
-        <v>54.130237 (5.5)</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.06436 (10.5)</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.882033 (10.5)</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.004286 (10.5)</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>9.9444444444444446</v>
+      <c r="T2">
+        <v>9.944444444444445</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -766,28 +965,28 @@
         <v>729.5076226676415</v>
       </c>
       <c r="C3">
-        <v>27.009398783898199</v>
+        <v>27.0093987838982</v>
       </c>
       <c r="D3">
-        <v>22.377705354850889</v>
+        <v>22.37770535485089</v>
       </c>
       <c r="E3">
-        <v>4.8608127649692537E-2</v>
+        <v>0.04860812764969254</v>
       </c>
       <c r="F3">
-        <v>-1.3630413483857029</v>
+        <v>-1.363041348385703</v>
       </c>
       <c r="G3">
-        <v>56.482072648336043</v>
+        <v>56.48207264833604</v>
       </c>
       <c r="H3">
-        <v>6.0242186308430978E-2</v>
+        <v>0.06024218630843098</v>
       </c>
       <c r="I3">
-        <v>1.6525086694418329</v>
+        <v>1.652508669441833</v>
       </c>
       <c r="J3">
-        <v>3.745219437066287E-3</v>
+        <v>0.003745219437066287</v>
       </c>
       <c r="K3">
         <v>5.5</v>
@@ -816,47 +1015,38 @@
       <c r="S3">
         <v>5.5</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T16" si="1">_xlfn.CONCAT(ROUND(B3,6)," (",K3,")")</f>
-        <v>729.507623 (5.5)</v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U16" si="2">_xlfn.CONCAT(ROUND(C3,6)," (",L3,")")</f>
-        <v>27.009399 (5.5)</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V16" si="3">_xlfn.CONCAT(ROUND(D3,6)," (",M3,")")</f>
-        <v>22.377705 (5.5)</v>
-      </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W16" si="4">_xlfn.CONCAT(ROUND(E3,6)," (",N3,")")</f>
-        <v>0.048608 (5.5)</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X16" si="5">_xlfn.CONCAT(ROUND(F3,6)," (",O3,")")</f>
-        <v>-1.363041 (5.5)</v>
-      </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y16" si="6">_xlfn.CONCAT(ROUND(G3,6)," (",P3,")")</f>
-        <v>56.482073 (11.5)</v>
-      </c>
-      <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z16" si="7">_xlfn.CONCAT(ROUND(H3,6)," (",Q3,")")</f>
-        <v>0.060242 (5.5)</v>
-      </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA16" si="8">_xlfn.CONCAT(ROUND(I3,6)," (",R3,")")</f>
-        <v>1.652509 (5.5)</v>
-      </c>
-      <c r="AB3" t="str">
-        <f t="shared" ref="AB3:AB16" si="9">_xlfn.CONCAT(ROUND(J3,6)," (",S3,")")</f>
-        <v>0.003745 (5.5)</v>
-      </c>
-      <c r="AC3" s="2">
+      <c r="T3">
         <v>6.166666666666667</v>
       </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -870,22 +1060,22 @@
         <v>22.9433344315892</v>
       </c>
       <c r="E4">
-        <v>4.9771076292282633E-2</v>
+        <v>0.04977107629228263</v>
       </c>
       <c r="F4">
-        <v>-1.5542667431570589</v>
+        <v>-1.554266743157059</v>
       </c>
       <c r="G4">
         <v>53.6530824329339</v>
       </c>
       <c r="H4">
-        <v>6.2769772325928147E-2</v>
+        <v>0.06276977232592815</v>
       </c>
       <c r="I4">
-        <v>1.7917505247854859</v>
+        <v>1.791750524785486</v>
       </c>
       <c r="J4">
-        <v>4.0736111336449133E-3</v>
+        <v>0.004073611133644913</v>
       </c>
       <c r="K4">
         <v>8.5</v>
@@ -914,47 +1104,38 @@
       <c r="S4">
         <v>8.5</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" si="1"/>
-        <v>788.541877 (8.5)</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="2"/>
-        <v>28.080988 (8.5)</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="3"/>
-        <v>22.943334 (8.5)</v>
-      </c>
-      <c r="W4" t="str">
-        <f t="shared" si="4"/>
-        <v>0.049771 (8.5)</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.554267 (8.5)</v>
-      </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="6"/>
-        <v>53.653082 (3.5)</v>
-      </c>
-      <c r="Z4" t="str">
-        <f t="shared" si="7"/>
-        <v>0.06277 (8.5)</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="8"/>
-        <v>1.791751 (8.5)</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004074 (8.5)</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>7.9444444444444446</v>
+      <c r="T4">
+        <v>7.944444444444445</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -962,28 +1143,28 @@
         <v>255.7345826193274</v>
       </c>
       <c r="C5">
-        <v>15.991703555885699</v>
+        <v>15.9917035558857</v>
       </c>
       <c r="D5">
         <v>12.83957813049552</v>
       </c>
       <c r="E5">
-        <v>2.8500395659645478E-2</v>
+        <v>0.02850039565964548</v>
       </c>
       <c r="F5">
-        <v>0.17161743871598939</v>
+        <v>0.1716174387159894</v>
       </c>
       <c r="G5">
-        <v>46.753303844217037</v>
+        <v>46.75330384421704</v>
       </c>
       <c r="H5">
-        <v>3.5356410554432227E-2</v>
+        <v>0.03535641055443223</v>
       </c>
       <c r="I5">
-        <v>0.56823826679669009</v>
+        <v>0.5682382667966901</v>
       </c>
       <c r="J5">
-        <v>1.263536753971683E-3</v>
+        <v>0.001263536753971683</v>
       </c>
       <c r="K5">
         <v>1.5</v>
@@ -1012,76 +1193,67 @@
       <c r="S5">
         <v>1.5</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="1"/>
-        <v>255.734583 (1.5)</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="2"/>
-        <v>15.991704 (1.5)</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="3"/>
-        <v>12.839578 (1.5)</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.0285 (1.5)</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="5"/>
-        <v>0.171617 (1.5)</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="6"/>
-        <v>46.753304 (1.5)</v>
-      </c>
-      <c r="Z5" t="str">
-        <f t="shared" si="7"/>
-        <v>0.035356 (1.5)</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="8"/>
-        <v>0.568238 (1.5)</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001264 (1.5)</v>
-      </c>
-      <c r="AC5" s="2">
+      <c r="T5">
         <v>1.5</v>
       </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6">
-        <v>701.74381414687059</v>
+        <v>701.7438141468706</v>
       </c>
       <c r="C6">
-        <v>26.490447601859628</v>
+        <v>26.49044760185963</v>
       </c>
       <c r="D6">
         <v>21.87999783094358</v>
       </c>
       <c r="E6">
-        <v>4.7527588400048539E-2</v>
+        <v>0.04752758840004854</v>
       </c>
       <c r="F6">
-        <v>-1.2731080488770079</v>
+        <v>-1.273108048877008</v>
       </c>
       <c r="G6">
-        <v>55.794860779600697</v>
+        <v>55.7948607796007</v>
       </c>
       <c r="H6">
-        <v>5.9037173933633669E-2</v>
+        <v>0.05903717393363367</v>
       </c>
       <c r="I6">
         <v>1.587921163709052</v>
       </c>
       <c r="J6">
-        <v>3.594968192074477E-3</v>
+        <v>0.003594968192074477</v>
       </c>
       <c r="K6">
         <v>3.5</v>
@@ -1110,52 +1282,43 @@
       <c r="S6">
         <v>3.5</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="1"/>
-        <v>701.743814 (3.5)</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="2"/>
-        <v>26.490448 (3.5)</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="3"/>
-        <v>21.879998 (3.5)</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="4"/>
-        <v>0.047528 (3.5)</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.273108 (3.5)</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="6"/>
-        <v>55.794861 (9.5)</v>
-      </c>
-      <c r="Z6" t="str">
-        <f t="shared" si="7"/>
-        <v>0.059037 (3.5)</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="8"/>
-        <v>1.587921 (3.5)</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003595 (3.5)</v>
-      </c>
-      <c r="AC6" s="2">
+      <c r="T6">
         <v>4.166666666666667</v>
       </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
-        <v>827.00596880940907</v>
+        <v>827.0059688094091</v>
       </c>
       <c r="C7">
         <v>28.75771146682936</v>
@@ -1164,22 +1327,22 @@
         <v>23.62748150149034</v>
       </c>
       <c r="E7">
-        <v>5.1271210714484337E-2</v>
+        <v>0.05127121071448434</v>
       </c>
       <c r="F7">
-        <v>-1.6788606985519501</v>
+        <v>-1.67886069855195</v>
       </c>
       <c r="G7">
-        <v>54.130237000471944</v>
+        <v>54.13023700047194</v>
       </c>
       <c r="H7">
-        <v>6.4359513948590186E-2</v>
+        <v>0.06435951394859019</v>
       </c>
       <c r="I7">
-        <v>1.8820330924638451</v>
+        <v>1.882033092463845</v>
       </c>
       <c r="J7">
-        <v>4.2855338934469694E-3</v>
+        <v>0.004285533893446969</v>
       </c>
       <c r="K7">
         <v>10.5</v>
@@ -1208,47 +1371,38 @@
       <c r="S7">
         <v>10.5</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="1"/>
-        <v>827.005969 (10.5)</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="2"/>
-        <v>28.757711 (10.5)</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="3"/>
-        <v>23.627482 (10.5)</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="4"/>
-        <v>0.051271 (10.5)</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.678861 (10.5)</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="6"/>
-        <v>54.130237 (5.5)</v>
-      </c>
-      <c r="Z7" t="str">
-        <f t="shared" si="7"/>
-        <v>0.06436 (10.5)</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="8"/>
-        <v>1.882033 (10.5)</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004286 (10.5)</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>9.9444444444444446</v>
+      <c r="T7">
+        <v>9.944444444444445</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1256,28 +1410,28 @@
         <v>729.5076226676415</v>
       </c>
       <c r="C8">
-        <v>27.009398783898199</v>
+        <v>27.0093987838982</v>
       </c>
       <c r="D8">
-        <v>22.377705354850889</v>
+        <v>22.37770535485089</v>
       </c>
       <c r="E8">
-        <v>4.8608127649692537E-2</v>
+        <v>0.04860812764969254</v>
       </c>
       <c r="F8">
-        <v>-1.3630413483857029</v>
+        <v>-1.363041348385703</v>
       </c>
       <c r="G8">
-        <v>56.482072648336043</v>
+        <v>56.48207264833604</v>
       </c>
       <c r="H8">
-        <v>6.0242186308430978E-2</v>
+        <v>0.06024218630843098</v>
       </c>
       <c r="I8">
-        <v>1.6525086694418329</v>
+        <v>1.652508669441833</v>
       </c>
       <c r="J8">
-        <v>3.745219437066287E-3</v>
+        <v>0.003745219437066287</v>
       </c>
       <c r="K8">
         <v>5.5</v>
@@ -1306,47 +1460,38 @@
       <c r="S8">
         <v>5.5</v>
       </c>
-      <c r="T8" t="str">
-        <f t="shared" si="1"/>
-        <v>729.507623 (5.5)</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="2"/>
-        <v>27.009399 (5.5)</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="3"/>
-        <v>22.377705 (5.5)</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="4"/>
-        <v>0.048608 (5.5)</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.363041 (5.5)</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="6"/>
-        <v>56.482073 (11.5)</v>
-      </c>
-      <c r="Z8" t="str">
-        <f t="shared" si="7"/>
-        <v>0.060242 (5.5)</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="8"/>
-        <v>1.652509 (5.5)</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003745 (5.5)</v>
-      </c>
-      <c r="AC8" s="2">
+      <c r="T8">
         <v>6.166666666666667</v>
       </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1360,22 +1505,22 @@
         <v>22.9433344315892</v>
       </c>
       <c r="E9">
-        <v>4.9771076292282633E-2</v>
+        <v>0.04977107629228263</v>
       </c>
       <c r="F9">
-        <v>-1.5542667431570589</v>
+        <v>-1.554266743157059</v>
       </c>
       <c r="G9">
         <v>53.6530824329339</v>
       </c>
       <c r="H9">
-        <v>6.2769772325928147E-2</v>
+        <v>0.06276977232592815</v>
       </c>
       <c r="I9">
-        <v>1.7917505247854859</v>
+        <v>1.791750524785486</v>
       </c>
       <c r="J9">
-        <v>4.0736111336449133E-3</v>
+        <v>0.004073611133644913</v>
       </c>
       <c r="K9">
         <v>8.5</v>
@@ -1404,47 +1549,38 @@
       <c r="S9">
         <v>8.5</v>
       </c>
-      <c r="T9" t="str">
-        <f t="shared" si="1"/>
-        <v>788.541877 (8.5)</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="2"/>
-        <v>28.080988 (8.5)</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="3"/>
-        <v>22.943334 (8.5)</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="4"/>
-        <v>0.049771 (8.5)</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.554267 (8.5)</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="6"/>
-        <v>53.653082 (3.5)</v>
-      </c>
-      <c r="Z9" t="str">
-        <f t="shared" si="7"/>
-        <v>0.06277 (8.5)</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="8"/>
-        <v>1.791751 (8.5)</v>
-      </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004074 (8.5)</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>7.9444444444444446</v>
+      <c r="T9">
+        <v>7.944444444444445</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1452,28 +1588,28 @@
         <v>255.7345826193274</v>
       </c>
       <c r="C10">
-        <v>15.991703555885699</v>
+        <v>15.9917035558857</v>
       </c>
       <c r="D10">
         <v>12.83957813049552</v>
       </c>
       <c r="E10">
-        <v>2.8500395659645478E-2</v>
+        <v>0.02850039565964548</v>
       </c>
       <c r="F10">
-        <v>0.17161743871598939</v>
+        <v>0.1716174387159894</v>
       </c>
       <c r="G10">
-        <v>46.753303844217037</v>
+        <v>46.75330384421704</v>
       </c>
       <c r="H10">
-        <v>3.5356410554432227E-2</v>
+        <v>0.03535641055443223</v>
       </c>
       <c r="I10">
-        <v>0.56823826679669009</v>
+        <v>0.5682382667966901</v>
       </c>
       <c r="J10">
-        <v>1.263536753971683E-3</v>
+        <v>0.001263536753971683</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1502,76 +1638,67 @@
       <c r="S10">
         <v>1.5</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" si="1"/>
-        <v>255.734583 (1.5)</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="2"/>
-        <v>15.991704 (1.5)</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="3"/>
-        <v>12.839578 (1.5)</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.0285 (1.5)</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="5"/>
-        <v>0.171617 (1.5)</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="6"/>
-        <v>46.753304 (1.5)</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="7"/>
-        <v>0.035356 (1.5)</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="8"/>
-        <v>0.568238 (1.5)</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="9"/>
-        <v>0.001264 (1.5)</v>
-      </c>
-      <c r="AC10" s="2">
+      <c r="T10">
         <v>1.5</v>
       </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
-        <v>701.74381414687059</v>
+        <v>701.7438141468706</v>
       </c>
       <c r="C11">
-        <v>26.490447601859628</v>
+        <v>26.49044760185963</v>
       </c>
       <c r="D11">
         <v>21.87999783094358</v>
       </c>
       <c r="E11">
-        <v>4.7527588400048539E-2</v>
+        <v>0.04752758840004854</v>
       </c>
       <c r="F11">
-        <v>-1.2731080488770079</v>
+        <v>-1.273108048877008</v>
       </c>
       <c r="G11">
-        <v>55.794860779600697</v>
+        <v>55.7948607796007</v>
       </c>
       <c r="H11">
-        <v>5.9037173933633669E-2</v>
+        <v>0.05903717393363367</v>
       </c>
       <c r="I11">
         <v>1.587921163709052</v>
       </c>
       <c r="J11">
-        <v>3.594968192074477E-3</v>
+        <v>0.003594968192074477</v>
       </c>
       <c r="K11">
         <v>3.5</v>
@@ -1600,47 +1727,38 @@
       <c r="S11">
         <v>3.5</v>
       </c>
-      <c r="T11" t="str">
-        <f t="shared" si="1"/>
-        <v>701.743814 (3.5)</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="2"/>
-        <v>26.490448 (3.5)</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="3"/>
-        <v>21.879998 (3.5)</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="4"/>
-        <v>0.047528 (3.5)</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.273108 (3.5)</v>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="6"/>
-        <v>55.794861 (9.5)</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="7"/>
-        <v>0.059037 (3.5)</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="8"/>
-        <v>1.587921 (3.5)</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003595 (3.5)</v>
-      </c>
-      <c r="AC11" s="2">
+      <c r="T11">
         <v>4.166666666666667</v>
       </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1648,28 +1766,28 @@
         <v>1071.725452761131</v>
       </c>
       <c r="C12">
-        <v>32.737218158559713</v>
+        <v>32.73721815855971</v>
       </c>
       <c r="D12">
-        <v>27.882077568961609</v>
+        <v>27.88207756896161</v>
       </c>
       <c r="E12">
-        <v>6.0662830214780021E-2</v>
+        <v>0.06066283021478002</v>
       </c>
       <c r="F12">
-        <v>-2.4715628463634931</v>
+        <v>-2.471562846363493</v>
       </c>
       <c r="G12">
         <v>60.39081700060575</v>
       </c>
       <c r="H12">
-        <v>7.3801807842205233E-2</v>
+        <v>0.07380180784220523</v>
       </c>
       <c r="I12">
-        <v>2.4610284558153692</v>
+        <v>2.461028455815369</v>
       </c>
       <c r="J12">
-        <v>5.6555639323436178E-3</v>
+        <v>0.005655563932343618</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1698,76 +1816,67 @@
       <c r="S12">
         <v>15</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" si="1"/>
-        <v>1071.725453 (15)</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="2"/>
-        <v>32.737218 (15)</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="3"/>
-        <v>27.882078 (15)</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="4"/>
-        <v>0.060663 (15)</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="5"/>
-        <v>-2.471563 (15)</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="6"/>
-        <v>60.390817 (14)</v>
-      </c>
-      <c r="Z12" t="str">
-        <f t="shared" si="7"/>
-        <v>0.073802 (15)</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="8"/>
-        <v>2.461028 (15)</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="9"/>
-        <v>0.005656 (15)</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>14.888888888888889</v>
+      <c r="T12">
+        <v>14.88888888888889</v>
+      </c>
+      <c r="U12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13">
-        <v>911.50031037536678</v>
+        <v>911.5003103753668</v>
       </c>
       <c r="C13">
-        <v>30.191063419087559</v>
+        <v>30.19106341908756</v>
       </c>
       <c r="D13">
         <v>25.24962683891809</v>
       </c>
       <c r="E13">
-        <v>5.4991094921584681E-2</v>
+        <v>0.05499109492158468</v>
       </c>
       <c r="F13">
-        <v>-1.9525571159997339</v>
+        <v>-1.952557115999734</v>
       </c>
       <c r="G13">
-        <v>62.088427407693644</v>
+        <v>62.08842740769364</v>
       </c>
       <c r="H13">
-        <v>6.7739121639675756E-2</v>
+        <v>0.06773912163967576</v>
       </c>
       <c r="I13">
         <v>2.079168887315908</v>
       </c>
       <c r="J13">
-        <v>4.7455127376183183E-3</v>
+        <v>0.004745512737618318</v>
       </c>
       <c r="K13">
         <v>14</v>
@@ -1796,76 +1905,67 @@
       <c r="S13">
         <v>14</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="1"/>
-        <v>911.50031 (14)</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="2"/>
-        <v>30.191063 (14)</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="3"/>
-        <v>25.249627 (14)</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="4"/>
-        <v>0.054991 (14)</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.952557 (14)</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="6"/>
-        <v>62.088427 (15)</v>
-      </c>
-      <c r="Z13" t="str">
-        <f t="shared" si="7"/>
-        <v>0.067739 (14)</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="8"/>
-        <v>2.079169 (14)</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004746 (14)</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>14.111111111111111</v>
+      <c r="T13">
+        <v>14.11111111111111</v>
+      </c>
+      <c r="U13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14">
-        <v>754.73568886582586</v>
+        <v>754.7356888658259</v>
       </c>
       <c r="C14">
         <v>27.47245327352157</v>
       </c>
       <c r="D14">
-        <v>22.439256958748292</v>
+        <v>22.43925695874829</v>
       </c>
       <c r="E14">
-        <v>4.8723462761266642E-2</v>
+        <v>0.04872346276126664</v>
       </c>
       <c r="F14">
         <v>-1.444760800950329</v>
       </c>
       <c r="G14">
-        <v>54.204249122050904</v>
+        <v>54.2042491220509</v>
       </c>
       <c r="H14">
-        <v>6.1396521442400161E-2</v>
+        <v>0.06139652144240016</v>
       </c>
       <c r="I14">
-        <v>1.7142424616947589</v>
+        <v>1.714242461694759</v>
       </c>
       <c r="J14">
-        <v>3.8959455090551648E-3</v>
+        <v>0.003895945509055165</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -1894,52 +1994,43 @@
       <c r="S14">
         <v>7</v>
       </c>
-      <c r="T14" t="str">
-        <f t="shared" si="1"/>
-        <v>754.735689 (7)</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="2"/>
-        <v>27.472453 (7)</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="3"/>
-        <v>22.439257 (7)</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="4"/>
-        <v>0.048723 (7)</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.444761 (7)</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="6"/>
-        <v>54.204249 (7)</v>
-      </c>
-      <c r="Z14" t="str">
-        <f t="shared" si="7"/>
-        <v>0.061397 (7)</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="8"/>
-        <v>1.714242 (7)</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="9"/>
-        <v>0.003896 (7)</v>
-      </c>
-      <c r="AC14" s="2">
+      <c r="T14">
         <v>7</v>
       </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15">
-        <v>899.91082628384208</v>
+        <v>899.9108262838421</v>
       </c>
       <c r="C15">
         <v>29.99851373458095</v>
@@ -1948,22 +2039,22 @@
         <v>24.88187767670744</v>
       </c>
       <c r="E15">
-        <v>5.4023612260152273E-2</v>
+        <v>0.05402361226015227</v>
       </c>
       <c r="F15">
         <v>-1.915016137312513</v>
       </c>
       <c r="G15">
-        <v>54.987238977824013</v>
+        <v>54.98723897782401</v>
       </c>
       <c r="H15">
-        <v>6.7268578382297869E-2</v>
+        <v>0.06726857838229787</v>
       </c>
       <c r="I15">
         <v>2.052764001687581</v>
       </c>
       <c r="J15">
-        <v>4.6853877676794834E-3</v>
+        <v>0.004685387767679483</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -1992,76 +2083,67 @@
       <c r="S15">
         <v>13</v>
       </c>
-      <c r="T15" t="str">
-        <f t="shared" si="1"/>
-        <v>899.910826 (13)</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="2"/>
-        <v>29.998514 (13)</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="3"/>
-        <v>24.881878 (13)</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="4"/>
-        <v>0.054024 (13)</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.915016 (13)</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="6"/>
-        <v>54.987239 (8)</v>
-      </c>
-      <c r="Z15" t="str">
-        <f t="shared" si="7"/>
-        <v>0.067269 (13)</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="8"/>
-        <v>2.052764 (13)</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004685 (13)</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>12.444444444444439</v>
+      <c r="T15">
+        <v>12.44444444444444</v>
+      </c>
+      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16">
-        <v>856.25604174195018</v>
+        <v>856.2560417419502</v>
       </c>
       <c r="C16">
-        <v>29.261853012786979</v>
+        <v>29.26185301278698</v>
       </c>
       <c r="D16">
-        <v>24.751675548665141</v>
+        <v>24.75167554866514</v>
       </c>
       <c r="E16">
-        <v>5.3833892384000437E-2</v>
+        <v>0.05383389238400044</v>
       </c>
       <c r="F16">
-        <v>-1.7736083470139901</v>
+        <v>-1.77360834701399</v>
       </c>
       <c r="G16">
-        <v>57.260716411557098</v>
+        <v>57.2607164115571</v>
       </c>
       <c r="H16">
-        <v>6.5521377823399771E-2</v>
+        <v>0.06552137782339977</v>
       </c>
       <c r="I16">
-        <v>1.9487803384835161</v>
+        <v>1.948780338483516</v>
       </c>
       <c r="J16">
-        <v>4.4377530472979364E-3</v>
+        <v>0.004437753047297936</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -2090,53 +2172,38 @@
       <c r="S16">
         <v>12</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="1"/>
-        <v>856.256042 (12)</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="2"/>
-        <v>29.261853 (12)</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="3"/>
-        <v>24.751676 (12)</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="4"/>
-        <v>0.053834 (12)</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="5"/>
-        <v>-1.773608 (12)</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="6"/>
-        <v>57.260716 (13)</v>
-      </c>
-      <c r="Z16" t="str">
-        <f t="shared" si="7"/>
-        <v>0.065521 (12)</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="8"/>
-        <v>1.94878 (12)</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="9"/>
-        <v>0.004438 (12)</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>12.111111111111111</v>
+      <c r="T16">
+        <v>12.11111111111111</v>
+      </c>
+      <c r="U16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AC2:AC16">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:S16">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>